--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R7beb40be72664df7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb3460714d18642e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R197727b50ce24dd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R582d588b2e63409f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re16052eb66d444b4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re04c51e45f5c4b23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -296,6 +296,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re89efd8c18a74e8b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdb99e495e44247da"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R197727b50ce24dd2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R582d588b2e63409f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rdb875e65f2604a34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R1b7dfaaa84b745ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re04c51e45f5c4b23"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5d5ae841159e4760"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -296,6 +296,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdb99e495e44247da"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra99553c6ee3c4de9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rdb875e65f2604a34"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R1b7dfaaa84b745ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Re0b97c8f64de4eeb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd1e6588e12304a8f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5d5ae841159e4760"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f32bca87a81435e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -296,6 +296,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra99553c6ee3c4de9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e6663060d0f45b2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Re0b97c8f64de4eeb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd1e6588e12304a8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R03d2eb981a884f6a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Ra3c89aac1fbb4faf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f32bca87a81435e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R40e224fd6c014e35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -296,6 +296,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e6663060d0f45b2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7853b7136e7b4b46"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R03d2eb981a884f6a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Ra3c89aac1fbb4faf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R1c90ccec8fed4a25"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R3b1225629c714008"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R40e224fd6c014e35"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc089bd7aafd746cf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -296,6 +296,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7853b7136e7b4b46"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78b7a3a2e2d84aa3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/83_ChartSeriesNamesImport_GenericTable.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R1c90ccec8fed4a25"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R3b1225629c714008"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rf2f91b3d6abe4090"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rcec78a83fa1a406b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc089bd7aafd746cf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc650d322a21644c5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -296,6 +296,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78b7a3a2e2d84aa3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R689bfaec870c452f"/>
 </x:worksheet>
 </file>